--- a/medicine/Psychotrope/Ballantine's/Ballantine's.xlsx
+++ b/medicine/Psychotrope/Ballantine's/Ballantine's.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ballantine%27s</t>
+          <t>Ballantine's</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ballantine’s est une marque de blend whisky appartenant à Pernod Ricard. Le Ballantine's est fabriqué par George Ballantine &amp; Son Ltd à Dumbarton, en Écosse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ballantine%27s</t>
+          <t>Ballantine's</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">George Ballantine crée son entreprise à l'âge de 19 ans en 1827[1]. C'est une petite épicerie[1].
-Il se lance notamment dans le commerce de thé et se distingue par sa capacité à créer des mélanges. Il se lance par la suite dans le commerce de whisky et est alors le premier à mettre en place le processus de vieillissement et d'assemblage, de blend de cette boisson alcoolisée. On assiste dès lors à la naissance de l'entreprise Ballantine's dont le produit phare est le blended whisky Finest. Pour ce whisky, la reine Victoria lui attribue en 1895, un brevet de fournisseur de la maison royale[1]. Sur l'année 2021, un classement de la revue The Spirits Business le porte au deuxième rang des meilleurs scotch whisky en chiffre d'affaires généré, derrière le Johnnie Walker[2].
-La marque appartient ensuite au conglomérat Allied Domecq, entre 1988 et 2005, date du rachat et partage de ce dernier entre Fortune Brands et Pernod Ricard[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">George Ballantine crée son entreprise à l'âge de 19 ans en 1827. C'est une petite épicerie.
+Il se lance notamment dans le commerce de thé et se distingue par sa capacité à créer des mélanges. Il se lance par la suite dans le commerce de whisky et est alors le premier à mettre en place le processus de vieillissement et d'assemblage, de blend de cette boisson alcoolisée. On assiste dès lors à la naissance de l'entreprise Ballantine's dont le produit phare est le blended whisky Finest. Pour ce whisky, la reine Victoria lui attribue en 1895, un brevet de fournisseur de la maison royale. Sur l'année 2021, un classement de la revue The Spirits Business le porte au deuxième rang des meilleurs scotch whisky en chiffre d'affaires généré, derrière le Johnnie Walker.
+La marque appartient ensuite au conglomérat Allied Domecq, entre 1988 et 2005, date du rachat et partage de ce dernier entre Fortune Brands et Pernod Ricard.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ballantine%27s</t>
+          <t>Ballantine's</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Produit</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La marque Ballantine's possède une gamme de 7 produits (parfois plus ou moins selon les marchés) aux caractéristiques variées et aux vieillissements différents.
 Finest - "soft, sweet and complex"
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ballantine%27s</t>
+          <t>Ballantine's</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Partenariats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Scottish Open Golf Tournament
 Australian A-League Football, Saison 2007-08 à aujourd'hui
